--- a/Project/Scrum board.xlsx
+++ b/Project/Scrum board.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricar\IdeaProjects\OliveiraGant\ganttproject\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C841480-4A8B-4CC1-81FB-A272C589811D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C22C94-2597-4B59-9ADF-1C8CA60B7734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="396" yWindow="876" windowWidth="21576" windowHeight="11472" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -153,7 +153,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,7 +169,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -195,24 +202,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9E1F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -220,38 +215,21 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="20% - Cor1" xfId="1" builtinId="30"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -532,8 +510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -544,7 +522,7 @@
     <col min="4" max="4" width="57.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -558,35 +536,35 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -594,147 +572,231 @@
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D7" s="7" t="s">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D8" s="7" t="s">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D9" s="7" t="s">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D10" s="7" t="s">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D11" s="7" t="s">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D12" s="7" t="s">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D13" s="7" t="s">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D14" s="7" t="s">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D15" s="7" t="s">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D16" t="s">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D17" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D18" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D19" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D20" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D21" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D22" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D23" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D24" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D25" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
       <c r="D26" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
       <c r="D27" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
       <c r="D28" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
       <c r="D29" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
       <c r="D30" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D31" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D32" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D33" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D34" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5" t="s">
         <v>36</v>
       </c>
     </row>
